--- a/db/informationCommunication.xlsx
+++ b/db/informationCommunication.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1158B\Desktop\ptuTest\ptuTest\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>grade</t>
   </si>
@@ -49,12 +57,6 @@
     <t>화 (2,3,4-&gt;이501)</t>
   </si>
   <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>화</t>
-  </si>
-  <si>
     <t>전선</t>
   </si>
   <si>
@@ -70,12 +72,6 @@
     <t>목 (5,6,7-&gt;이503)</t>
   </si>
   <si>
-    <t>5,6,7</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
     <t>2851-01</t>
   </si>
   <si>
@@ -88,9 +84,6 @@
     <t>목 (8,9,10-&gt;이503)</t>
   </si>
   <si>
-    <t>8,9,10</t>
-  </si>
-  <si>
     <t>1583-01</t>
   </si>
   <si>
@@ -103,9 +96,6 @@
     <t>목 (6,7,8-&gt;이501)</t>
   </si>
   <si>
-    <t>6,7,8</t>
-  </si>
-  <si>
     <t>1584-01</t>
   </si>
   <si>
@@ -115,12 +105,6 @@
     <t>수 (7,8,9-&gt;이503)</t>
   </si>
   <si>
-    <t>7,8,9</t>
-  </si>
-  <si>
-    <t>수</t>
-  </si>
-  <si>
     <t>1585-01</t>
   </si>
   <si>
@@ -130,9 +114,6 @@
     <t>금 (6,7,8-&gt;이501)</t>
   </si>
   <si>
-    <t>금</t>
-  </si>
-  <si>
     <t>1661-01</t>
   </si>
   <si>
@@ -176,9 +157,6 @@
   </si>
   <si>
     <t>월 (2,3,4-&gt;이503)</t>
-  </si>
-  <si>
-    <t>월</t>
   </si>
   <si>
     <t>2508-18</t>
@@ -241,11 +219,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -254,17 +229,15 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -312,74 +285,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffebf1e8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFEBF1E8"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -581,7 +614,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -600,7 +633,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +715,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +767,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +793,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +819,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +845,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,9 +884,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -870,7 +909,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -889,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -915,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -941,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,9 +1175,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1152,7 +1197,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1171,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,76 +1467,72 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1499,548 +1540,550 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="2">
-        <f>MID(I2,FIND("(",I2)+1,FIND("-&gt;",I2)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <f>LEFT(I2,1)</f>
-        <v>13</v>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ref="J2:J12" si="0">MID(I2,FIND("(",I2)+1,FIND("-&gt;",I2)-4)</f>
+        <v>2,3,4</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K18" si="1">LEFT(I2,1)</f>
+        <v>화</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>3</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <f>MID(I3,FIND("(",I3)+1,FIND("-&gt;",I3)-4)</f>
-        <v>19</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <f>LEFT(I3,1)</f>
-        <v>20</v>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>5,6,7</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>목</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>22</v>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <f>MID(I4,FIND("(",I4)+1,FIND("-&gt;",I4)-4)</f>
-        <v>25</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <f>LEFT(I4,1)</f>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>8,9,10</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>목</v>
+      </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>27</v>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <f>MID(I5,FIND("(",I5)+1,FIND("-&gt;",I5)-4)</f>
-        <v>30</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <f>LEFT(I5,1)</f>
-        <v>20</v>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6,7,8</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>목</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>32</v>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>3</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <f>MID(I6,FIND("(",I6)+1,FIND("-&gt;",I6)-4)</f>
-        <v>34</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <f>LEFT(I6,1)</f>
-        <v>35</v>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7,8,9</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>37</v>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <f>MID(I7,FIND("(",I7)+1,FIND("-&gt;",I7)-4)</f>
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <f>LEFT(I7,1)</f>
-        <v>39</v>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6,7,8</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>금</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>41</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <f>MID(I8,FIND("(",I8)+1,FIND("-&gt;",I8)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <f>LEFT(I8,1)</f>
-        <v>39</v>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>금</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>44</v>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <f>MID(I9,FIND("(",I9)+1,FIND("-&gt;",I9)-4)</f>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <f>LEFT(I9,1)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="4">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>47</v>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <f>MID(I10,FIND("(",I10)+1,FIND("-&gt;",I10)-4)</f>
-        <v>30</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <f>LEFT(I10,1)</f>
-        <v>13</v>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>6,7,8</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>화</v>
       </c>
     </row>
-    <row r="11" ht="22.5" customHeight="1">
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>50</v>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <f>MID(I11,FIND("(",I11)+1,FIND("-&gt;",I11)-4)</f>
-        <v>34</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <f>LEFT(I11,1)</f>
-        <v>35</v>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>7,8,9</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수</v>
       </c>
     </row>
-    <row r="12" ht="33.75" customHeight="1">
+    <row r="12" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>53</v>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <f>MID(I12,FIND("(",I12)+1,FIND("-&gt;",I12)-4)</f>
+      <c r="I12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>월</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <f>LEFT(I12,1)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>57</v>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" t="s" s="5">
-        <v>58</v>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" t="s" s="5">
-        <v>59</v>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
-      <c r="K13" t="s" s="2">
-        <f>LEFT(I13,1)</f>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
-    <row r="14" ht="22.5" customHeight="1">
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>61</v>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s" s="2">
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="str">
         <f>MID(I14,FIND("(",I14)+1,FIND("-&gt;",I14)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <f>LEFT(I14,1)</f>
-        <v>13</v>
+        <v>2,3,4</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>화</v>
       </c>
     </row>
-    <row r="15" ht="22.5" customHeight="1">
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>64</v>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s" s="2">
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="2" t="str">
         <f>MID(I15,FIND("(",I15)+1,FIND("-&gt;",I15)-4)</f>
-        <v>30</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <f>LEFT(I15,1)</f>
-        <v>39</v>
+        <v>6,7,8</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>금</v>
       </c>
     </row>
-    <row r="16" ht="22.5" customHeight="1">
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>67</v>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="4">
         <v>3</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s" s="2">
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f>MID(I16,FIND("(",I16)+1,FIND("-&gt;",I16)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <f>LEFT(I16,1)</f>
-        <v>13</v>
+        <v>2,3,4</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>화</v>
       </c>
     </row>
-    <row r="17" ht="22.5" customHeight="1">
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s" s="6">
-        <v>70</v>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="J17" t="s" s="2">
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f>MID(I17,FIND("(",I17)+1,FIND("-&gt;",I17)-4)</f>
-        <v>30</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <f>LEFT(I17,1)</f>
-        <v>13</v>
+        <v>6,7,8</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>화</v>
       </c>
     </row>
-    <row r="18" ht="33.75" customHeight="1">
+    <row r="18" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>73</v>
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="8">
         <v>3</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" t="s" s="9">
+      <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I18" t="s" s="9">
-        <v>74</v>
-      </c>
-      <c r="J18" t="s" s="2">
+      <c r="I18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="str">
         <f>MID(I18,FIND("(",I18)+1,FIND("-&gt;",I18)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <f>LEFT(I18,1)</f>
-        <v>39</v>
+        <v>2,3,4</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>금</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
